--- a/FASE 2/PRUEBAS/Pruebas integrales - fechas propuestas_POR_CERRADA.xlsx
+++ b/FASE 2/PRUEBAS/Pruebas integrales - fechas propuestas_POR_CERRADA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="360" windowWidth="14880" windowHeight="6135"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Agenda PI" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -19,12 +19,6 @@
     <t>Registro de Muestra de Investigación (Envío de valores de ensayo y comentarios por correo electrónico)</t>
   </si>
   <si>
-    <t>Iconos de acceso directo</t>
-  </si>
-  <si>
-    <t>Reemplazar Ensayo (Cementos y Premezclados)</t>
-  </si>
-  <si>
     <t>Administrar Id de Lotes y Ensayos</t>
   </si>
   <si>
@@ -43,9 +37,6 @@
     <t>Administrar Producto</t>
   </si>
   <si>
-    <t>*Administrar Puesto de Trabajo (Antes: Adm. Puesto Trabajo por Responsable)</t>
-  </si>
-  <si>
     <t>Administrar Medidas Correctivas por Tipo de Ensayo</t>
   </si>
   <si>
@@ -55,15 +46,6 @@
     <t>Administrar Roles por puesto de trabajo</t>
   </si>
   <si>
-    <t>Administrar Información de Auditoria</t>
-  </si>
-  <si>
-    <t>Administrar Empresa</t>
-  </si>
-  <si>
-    <t>Reporte Consolidado en Archivo (premezclados)</t>
-  </si>
-  <si>
     <t>Gráfico de Tendencia de Reporte Específico Consolidado y Control diario</t>
   </si>
   <si>
@@ -82,15 +64,9 @@
     <t>Mostrar cantidad de decimales de acuerdo a configuración en tabla tipo de ensayo</t>
   </si>
   <si>
-    <t>Agregar 3 campos Centro, Almacen e Imputación, en Administrar Planta, en el registro y modificación</t>
-  </si>
-  <si>
     <t>Agregar campo Codigo de Material en el ingresar y modificar de Administrar Producto</t>
   </si>
   <si>
-    <t>Agregar negocio al Administrar Proceso</t>
-  </si>
-  <si>
     <t>Agregar flag de reporte promedio ponderado al Administrar Tipo de Ensayo</t>
   </si>
   <si>
@@ -163,9 +139,6 @@
     <t>Usuario:</t>
   </si>
   <si>
-    <t>Administrar Línea de Producto *</t>
-  </si>
-  <si>
     <t>Administrar Responsable *</t>
   </si>
   <si>
@@ -175,14 +148,41 @@
     <t>Creación de equivalencias de Grupo de muestras QCX **</t>
   </si>
   <si>
-    <t>Administrar Turno *</t>
+    <t>Administrar Empresa *</t>
+  </si>
+  <si>
+    <t>Iconos de acceso directo **</t>
+  </si>
+  <si>
+    <t>Administrar Puesto de Trabajo **</t>
+  </si>
+  <si>
+    <t>Administrar Línea de Producto **</t>
+  </si>
+  <si>
+    <t>Agregar negocio al Administrar Proceso **</t>
+  </si>
+  <si>
+    <t>Reporte Consolidado en Archivo (premezclados) *</t>
+  </si>
+  <si>
+    <t>Administrar Turno **</t>
+  </si>
+  <si>
+    <t>Agregar 3 campos Centro, Almacen e Imputación, en Administrar Planta, en el registro y modificación *</t>
+  </si>
+  <si>
+    <t>Reemplazar Ensayo (Cementos y Premezclados) **</t>
+  </si>
+  <si>
+    <t>Administrar Información de Auditoria *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +212,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -364,12 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -391,9 +391,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -438,6 +435,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +534,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -563,7 +568,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -739,20 +743,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="7" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="3" customWidth="1"/>
@@ -768,140 +772,140 @@
     <col min="15" max="16" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="I5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="J5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="K5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="L5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="M5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="N5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="20" t="s">
+      <c r="O5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="P5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" ht="46.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +913,8 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="9" t="s">
-        <v>42</v>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -923,12 +927,12 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>43</v>
+    <row r="7" spans="1:16">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -945,38 +949,38 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="F8" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="5" customFormat="1" ht="30">
+      <c r="A8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="F8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="14" t="s">
-        <v>44</v>
+      <c r="F9" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -989,9 +993,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -999,8 +1003,8 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="12" t="s">
-        <v>43</v>
+      <c r="H10" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1011,9 +1015,9 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1022,8 +1026,8 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="12" t="s">
-        <v>43</v>
+      <c r="I11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1032,9 +1036,9 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1044,8 +1048,8 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="12" t="s">
-        <v>43</v>
+      <c r="J12" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1054,9 +1058,9 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="33" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1065,8 +1069,8 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="12" t="s">
-        <v>43</v>
+      <c r="I13" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1076,9 +1080,9 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1090,17 +1094,17 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="12" t="s">
-        <v>43</v>
+      <c r="L14" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="46.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1112,17 +1116,17 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="12" t="s">
-        <v>43</v>
+      <c r="L15" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="31.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1132,17 +1136,17 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" s="24" t="s">
-        <v>43</v>
+      <c r="L16" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="30">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1153,17 +1157,17 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="L17" s="24" t="s">
-        <v>43</v>
+      <c r="L17" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="30">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1176,22 +1180,22 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="12" t="s">
-        <v>43</v>
+      <c r="M18" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>13</v>
+    <row r="19" spans="1:16" ht="30">
+      <c r="A19" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="F19" s="24" t="s">
-        <v>43</v>
+      <c r="F19" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1204,9 +1208,9 @@
       <c r="O19" s="4"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1220,15 +1224,15 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="12" t="s">
-        <v>43</v>
+      <c r="N20" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1242,15 +1246,15 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="12" t="s">
-        <v>43</v>
+      <c r="N21" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1265,14 +1269,14 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="12" t="s">
-        <v>43</v>
+      <c r="O22" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1287,14 +1291,14 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="12" t="s">
-        <v>43</v>
+      <c r="O23" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1309,22 +1313,22 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" ht="30">
+      <c r="A25" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="24" t="s">
-        <v>43</v>
+      <c r="G25" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1336,17 +1340,17 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>15</v>
+    <row r="26" spans="1:16" ht="30">
+      <c r="A26" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="H26" s="25" t="s">
-        <v>44</v>
+      <c r="H26" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1357,14 +1361,14 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>16</v>
+    <row r="27" spans="1:16" ht="45">
+      <c r="A27" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="12" t="s">
-        <v>43</v>
+      <c r="D27" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1379,12 +1383,12 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>44</v>
+    <row r="28" spans="1:16" ht="30">
+      <c r="A28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1401,15 +1405,15 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>18</v>
+    <row r="29" spans="1:16" ht="30">
+      <c r="A29" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="25" t="s">
-        <v>44</v>
+      <c r="G29" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1421,14 +1425,14 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>19</v>
+    <row r="30" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="25" t="s">
-        <v>44</v>
+      <c r="F30" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1441,16 +1445,16 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>20</v>
+    <row r="31" spans="1:16" ht="61.5" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="12" t="s">
-        <v>43</v>
+      <c r="F31" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1463,16 +1467,16 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>21</v>
+    <row r="32" spans="1:16" ht="50.25" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="12" t="s">
-        <v>43</v>
+      <c r="F32" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1485,9 +1489,9 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>22</v>
+    <row r="33" spans="1:16" ht="48" customHeight="1">
+      <c r="A33" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1503,13 +1507,13 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>23</v>
+      <c r="P33" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="45.75" customHeight="1">
+      <c r="A34" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1525,13 +1529,13 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>24</v>
+      <c r="P34" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="30">
+      <c r="A35" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1547,13 +1551,13 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>25</v>
+      <c r="P35" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="45">
+      <c r="A36" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1569,8 +1573,8 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="12" t="s">
-        <v>43</v>
+      <c r="P36" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/FASE 2/PRUEBAS/Pruebas integrales - fechas propuestas_POR_CERRADA.xlsx
+++ b/FASE 2/PRUEBAS/Pruebas integrales - fechas propuestas_POR_CERRADA.xlsx
@@ -22,54 +22,9 @@
     <t>Administrar Id de Lotes y Ensayos</t>
   </si>
   <si>
-    <t>Mejoras menores</t>
-  </si>
-  <si>
-    <t>Administrar Grupo de Tipo de Ensayo</t>
-  </si>
-  <si>
-    <t>Administrar Tipo de Ensayo</t>
-  </si>
-  <si>
-    <t>Administrar matriz de tratamiento por producto y proceso</t>
-  </si>
-  <si>
-    <t>Administrar Producto</t>
-  </si>
-  <si>
-    <t>Administrar Medidas Correctivas por Tipo de Ensayo</t>
-  </si>
-  <si>
-    <t>Administrar Responsables por Medida Correctiva</t>
-  </si>
-  <si>
-    <t>Administrar Roles por puesto de trabajo</t>
-  </si>
-  <si>
-    <t>Gráfico de Tendencia de Reporte Específico Consolidado y Control diario</t>
-  </si>
-  <si>
-    <t>Gestión de stock de pre-fabricados, DINO</t>
-  </si>
-  <si>
     <t>Envio de Lotes de Prefabricados a SAP</t>
   </si>
   <si>
-    <t>Re-configurar los formatos de granulometría / Recalcular Curva Granulométrica</t>
-  </si>
-  <si>
-    <t>Modificar funcionalidad "Detalle de Ensayo" para que presente las unidades de muestra sin redondeo a la decena</t>
-  </si>
-  <si>
-    <t>Mostrar cantidad de decimales de acuerdo a configuración en tabla tipo de ensayo</t>
-  </si>
-  <si>
-    <t>Agregar campo Codigo de Material en el ingresar y modificar de Administrar Producto</t>
-  </si>
-  <si>
-    <t>Agregar flag de reporte promedio ponderado al Administrar Tipo de Ensayo</t>
-  </si>
-  <si>
     <t>Kelly Cueva</t>
   </si>
   <si>
@@ -139,18 +94,9 @@
     <t>Usuario:</t>
   </si>
   <si>
-    <t>Administrar Responsable *</t>
-  </si>
-  <si>
-    <t>Administrar Negocio *</t>
-  </si>
-  <si>
     <t>Creación de equivalencias de Grupo de muestras QCX **</t>
   </si>
   <si>
-    <t>Administrar Empresa *</t>
-  </si>
-  <si>
     <t>Iconos de acceso directo **</t>
   </si>
   <si>
@@ -163,19 +109,73 @@
     <t>Agregar negocio al Administrar Proceso **</t>
   </si>
   <si>
-    <t>Reporte Consolidado en Archivo (premezclados) *</t>
-  </si>
-  <si>
     <t>Administrar Turno **</t>
   </si>
   <si>
-    <t>Agregar 3 campos Centro, Almacen e Imputación, en Administrar Planta, en el registro y modificación *</t>
-  </si>
-  <si>
     <t>Reemplazar Ensayo (Cementos y Premezclados) **</t>
   </si>
   <si>
     <t>Administrar Información de Auditoria *</t>
+  </si>
+  <si>
+    <t>Re-configurar los formatos de granulometría / Recalcular Curva Granulométrica *</t>
+  </si>
+  <si>
+    <t>Modificar funcionalidad "Detalle de Ensayo" para que presente las unidades de muestra sin redondeo a la decena **</t>
+  </si>
+  <si>
+    <t>Mostrar cantidad de decimales de acuerdo a configuración en tabla tipo de ensayo **</t>
+  </si>
+  <si>
+    <t>Agregar campo Codigo de Material en el ingresar y modificar de Administrar Producto **</t>
+  </si>
+  <si>
+    <t>Administrar Producto **</t>
+  </si>
+  <si>
+    <t>Reporte Consolidado en Archivo (premezclados) **</t>
+  </si>
+  <si>
+    <t>Administrar Empresa **</t>
+  </si>
+  <si>
+    <t>Administrar Grupo de Tipo de Ensayo **</t>
+  </si>
+  <si>
+    <t>Administrar matriz de tratamiento por producto y proceso **</t>
+  </si>
+  <si>
+    <t>Administrar Negocio **</t>
+  </si>
+  <si>
+    <t>Agregar 3 campos Centro, Almacen e Imputación, en Administrar Planta, en el registro y modificación **</t>
+  </si>
+  <si>
+    <t>Gráfico de Tendencia de Reporte Específico Consolidado y Control diario *</t>
+  </si>
+  <si>
+    <t>Administrar Responsable **</t>
+  </si>
+  <si>
+    <t>Administrar Roles por puesto de trabajo **</t>
+  </si>
+  <si>
+    <t>Administrar Responsables por Medida Correctiva **</t>
+  </si>
+  <si>
+    <t>Administrar Medidas Correctivas por Tipo de Ensayo **</t>
+  </si>
+  <si>
+    <t>Mejoras menores **</t>
+  </si>
+  <si>
+    <t>Gestión de stock de pre-fabricados, DINO *</t>
+  </si>
+  <si>
+    <t>Administrar Tipo de Ensayo **</t>
+  </si>
+  <si>
+    <t>Agregar flag de reporte promedio ponderado al Administrar Tipo de Ensayo **</t>
   </si>
 </sst>
 </file>
@@ -421,6 +421,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -435,15 +444,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,16 +747,16 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="44" style="6" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="7" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="3" customWidth="1"/>
@@ -773,136 +773,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="16" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="P5" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="46.5" customHeight="1">
@@ -914,7 +914,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -929,10 +929,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="14" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -950,16 +950,16 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A8" s="30" t="s">
-        <v>52</v>
+      <c r="A8" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -980,7 +980,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1004,7 +1004,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="11" spans="1:16" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1027,7 +1027,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1049,7 +1049,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="13" spans="1:16" ht="33" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1070,7 +1070,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1095,7 +1095,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="15" spans="1:16" ht="46.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1117,7 +1117,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1137,7 +1137,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="L16" s="21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="17" spans="1:16" ht="30">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1158,16 +1158,16 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="L17" s="21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="30">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1181,21 +1181,21 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="30">
+    <row r="19" spans="1:16">
       <c r="A19" s="13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="F19" s="21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1225,14 +1225,14 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1247,14 +1247,14 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1270,13 +1270,13 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1292,13 +1292,13 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1314,13 +1314,13 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="30">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1328,7 +1328,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="21" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="26" spans="1:16" ht="30">
       <c r="A26" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1350,7 +1350,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="H26" s="22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1361,14 +1361,14 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="45">
+    <row r="27" spans="1:16" ht="30">
       <c r="A27" s="13" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1383,12 +1383,12 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="30">
+    <row r="28" spans="1:16">
       <c r="A28" s="13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1405,15 +1405,15 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="30">
+    <row r="29" spans="1:16">
       <c r="A29" s="13" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1427,12 +1427,12 @@
     </row>
     <row r="30" spans="1:16" ht="47.25" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="22" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1447,14 +1447,14 @@
     </row>
     <row r="31" spans="1:16" ht="61.5" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1469,14 +1469,14 @@
     </row>
     <row r="32" spans="1:16" ht="50.25" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1490,8 +1490,8 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="48" customHeight="1">
-      <c r="A33" s="28" t="s">
-        <v>51</v>
+      <c r="A33" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1508,12 +1508,12 @@
       <c r="N33" s="4"/>
       <c r="O33" s="2"/>
       <c r="P33" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="45.75" customHeight="1">
-      <c r="A34" s="28" t="s">
-        <v>16</v>
+      <c r="A34" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1530,12 +1530,12 @@
       <c r="N34" s="4"/>
       <c r="O34" s="2"/>
       <c r="P34" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="30">
-      <c r="A35" s="29" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1552,12 +1552,12 @@
       <c r="N35" s="4"/>
       <c r="O35" s="2"/>
       <c r="P35" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="45">
-      <c r="A36" s="29" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="30">
+      <c r="A36" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1574,7 +1574,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="2"/>
       <c r="P36" s="10" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/FASE 2/PRUEBAS/Pruebas integrales - fechas propuestas_POR_CERRADA.xlsx
+++ b/FASE 2/PRUEBAS/Pruebas integrales - fechas propuestas_POR_CERRADA.xlsx
@@ -151,9 +151,6 @@
     <t>Agregar 3 campos Centro, Almacen e Imputación, en Administrar Planta, en el registro y modificación **</t>
   </si>
   <si>
-    <t>Gráfico de Tendencia de Reporte Específico Consolidado y Control diario *</t>
-  </si>
-  <si>
     <t>Administrar Responsable **</t>
   </si>
   <si>
@@ -169,13 +166,16 @@
     <t>Mejoras menores **</t>
   </si>
   <si>
-    <t>Gestión de stock de pre-fabricados, DINO *</t>
-  </si>
-  <si>
     <t>Administrar Tipo de Ensayo **</t>
   </si>
   <si>
     <t>Agregar flag de reporte promedio ponderado al Administrar Tipo de Ensayo **</t>
+  </si>
+  <si>
+    <t>Gráfico de Tendencia de Reporte Específico Consolidado y Control diario **</t>
+  </si>
+  <si>
+    <t>Gestión de stock de pre-fabricados, DINO **</t>
   </si>
 </sst>
 </file>
@@ -747,11 +747,11 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="16" spans="1:16" ht="31.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="17" spans="1:16" ht="30">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="27" spans="1:16" ht="30">
       <c r="A27" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>21</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="36" spans="1:16" ht="30">
       <c r="A36" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
